--- a/Excel/Lec Macros 1.1 (1).xlsx
+++ b/Excel/Lec Macros 1.1 (1).xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janvi Jariwala\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4B790B-839D-4837-BC47-9EE2411A9299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F47070D-D1D0-4D64-B635-E112C4D4CD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DC54F5E8-5FD9-41F8-8C03-A62930DC9A4C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{DC54F5E8-5FD9-41F8-8C03-A62930DC9A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,14 +28,146 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="71">
+  <si>
+    <t>Aarav</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Aisha</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Ananya</t>
+  </si>
+  <si>
+    <t>Choudhury</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Reddy</t>
+  </si>
+  <si>
+    <t>Avni</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Ishaan</t>
+  </si>
+  <si>
+    <t>Saxena</t>
+  </si>
+  <si>
+    <t>Jiya</t>
+  </si>
+  <si>
+    <t>Khan</t>
+  </si>
+  <si>
+    <t>Kabir</t>
+  </si>
+  <si>
+    <t>Mishra</t>
+  </si>
+  <si>
+    <t>Kriti</t>
+  </si>
+  <si>
+    <t>Joshi</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>Shah</t>
+  </si>
+  <si>
+    <t>Pranav</t>
+  </si>
+  <si>
+    <t>Jain</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>Das</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Pandey</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>Chopra</t>
+  </si>
+  <si>
+    <t>Vikram</t>
+  </si>
+  <si>
+    <t>Singhania</t>
+  </si>
+  <si>
+    <t>Zoya</t>
+  </si>
+  <si>
+    <t>Mehta</t>
+  </si>
+  <si>
+    <t>Sr. No</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
   <si>
     <t>Aaradhya</t>
   </si>
   <si>
-    <t>Gupta</t>
-  </si>
-  <si>
     <t>Advik</t>
   </si>
   <si>
@@ -43,27 +177,15 @@
     <t>Anika</t>
   </si>
   <si>
-    <t>Sharma</t>
-  </si>
-  <si>
     <t>Aryan</t>
   </si>
   <si>
     <t>Desai</t>
   </si>
   <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>Patel</t>
-  </si>
-  <si>
     <t>Ishan</t>
   </si>
   <si>
-    <t>Singh</t>
-  </si>
-  <si>
     <t>Kavya</t>
   </si>
   <si>
@@ -73,15 +195,9 @@
     <t>Mihir</t>
   </si>
   <si>
-    <t>Mishra</t>
-  </si>
-  <si>
     <t>Myra</t>
   </si>
   <si>
-    <t>Chopra</t>
-  </si>
-  <si>
     <t>Navya</t>
   </si>
   <si>
@@ -91,27 +207,15 @@
     <t>Parth</t>
   </si>
   <si>
-    <t>Shah</t>
-  </si>
-  <si>
     <t>Prisha</t>
   </si>
   <si>
-    <t>Verma</t>
-  </si>
-  <si>
     <t>Reyansh</t>
   </si>
   <si>
-    <t>Kumar</t>
-  </si>
-  <si>
     <t>Saisha</t>
   </si>
   <si>
-    <t>Reddy</t>
-  </si>
-  <si>
     <t>Shaurya</t>
   </si>
   <si>
@@ -121,9 +225,6 @@
     <t>Vihaan</t>
   </si>
   <si>
-    <t>Khan</t>
-  </si>
-  <si>
     <t>Zara</t>
   </si>
   <si>
@@ -139,103 +240,7 @@
     <t>Advait</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Sr. No</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Aarav</t>
-  </si>
-  <si>
-    <t>Aisha</t>
-  </si>
-  <si>
-    <t>Amit</t>
-  </si>
-  <si>
-    <t>Ananya</t>
-  </si>
-  <si>
-    <t>Choudhury</t>
-  </si>
-  <si>
-    <t>Arjun</t>
-  </si>
-  <si>
-    <t>Avni</t>
-  </si>
-  <si>
-    <t>Dev</t>
-  </si>
-  <si>
-    <t>Ishaan</t>
-  </si>
-  <si>
-    <t>Saxena</t>
-  </si>
-  <si>
-    <t>Jiya</t>
-  </si>
-  <si>
-    <t>Kabir</t>
-  </si>
-  <si>
-    <t>Kriti</t>
-  </si>
-  <si>
-    <t>Joshi</t>
-  </si>
-  <si>
-    <t>Mohan</t>
-  </si>
-  <si>
-    <t>Neha</t>
-  </si>
-  <si>
-    <t>Pranav</t>
-  </si>
-  <si>
-    <t>Jain</t>
-  </si>
-  <si>
-    <t>Riya</t>
-  </si>
-  <si>
-    <t>Das</t>
-  </si>
-  <si>
-    <t>Rohan</t>
-  </si>
-  <si>
-    <t>Pandey</t>
-  </si>
-  <si>
-    <t>Sneha</t>
-  </si>
-  <si>
-    <t>Vikram</t>
-  </si>
-  <si>
-    <t>Singhania</t>
-  </si>
-  <si>
-    <t>Zoya</t>
-  </si>
-  <si>
-    <t>Mehta</t>
+    <t>Sr.No</t>
   </si>
 </sst>
 </file>
@@ -252,14 +257,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,7 +279,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,20 +328,30 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -338,52 +359,25 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -391,6 +385,12 @@
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{5AEAEE67-257B-467F-A14B-937532B02C0A}"/>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FF713C7C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -701,34 +701,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360FB886-AC4C-4FF0-B2AC-3B64F8837ED7}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -736,10 +737,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>50000</v>
@@ -754,10 +755,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>60000</v>
@@ -772,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -790,10 +791,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>55000</v>
@@ -808,10 +809,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>80000</v>
@@ -826,10 +827,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
         <v>65000</v>
@@ -844,10 +845,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>70000</v>
@@ -862,10 +863,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>60000</v>
@@ -880,10 +881,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>85000</v>
@@ -898,10 +899,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1">
         <v>70000</v>
@@ -916,10 +917,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1">
         <v>60000</v>
@@ -934,10 +935,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1">
         <v>55000</v>
@@ -952,10 +953,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>90000</v>
@@ -970,10 +971,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1">
         <v>65000</v>
@@ -988,10 +989,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1">
         <v>75000</v>
@@ -1006,10 +1007,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1">
         <v>70000</v>
@@ -1024,10 +1025,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1">
         <v>80000</v>
@@ -1042,10 +1043,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1">
         <v>60000</v>
@@ -1060,10 +1061,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1">
         <v>70000</v>
@@ -1078,10 +1079,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D21" s="1">
         <v>65000</v>
@@ -1093,19 +1094,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D21">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF7030A0"/>
-        <color theme="7" tint="0.39997558519241921"/>
-      </colorScale>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="between">
+      <formula>45000</formula>
+      <formula>60000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
+      <formula>20</formula>
       <formula>30</formula>
-      <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1113,37 +1110,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9C53B9-D103-43FB-AE65-7CDB8ED81626}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225E4B3F-467B-43B5-83CE-E3338F60A84F}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1370,7 +1368,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>90000</v>
@@ -1385,10 +1383,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D15" s="1">
         <v>65000</v>
@@ -1403,10 +1401,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>75000</v>
@@ -1424,7 +1422,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1">
         <v>70000</v>
@@ -1439,10 +1437,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1">
         <v>80000</v>
@@ -1457,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1">
         <v>60000</v>
@@ -1475,10 +1473,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1">
         <v>70000</v>
@@ -1493,10 +1491,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D21" s="1">
         <v>65000</v>
@@ -1507,24 +1505,846 @@
       <c r="F21" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
-      <formula>50000</formula>
-      <formula>55000</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D21">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
-      <formula>50000</formula>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+      <formula>45000</formula>
       <formula>60000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
-      <formula>25</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>20</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9C53B9-D103-43FB-AE65-7CDB8ED81626}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>75000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1">
+        <v>55000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>80000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>65000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1">
+        <v>70000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1">
+        <v>85000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1">
+        <v>70000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>55000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>90000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>65000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>75000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>70000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1">
+        <v>80000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>41</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1">
+        <v>70000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>38</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1">
+        <v>65000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>35</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <color rgb="FF713C7C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E21">
+    <cfRule type="top10" dxfId="0" priority="1" rank="5"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2AC866-B967-4B20-B7B4-303A7240ED40}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>75000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1">
+        <v>55000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>80000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>65000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1">
+        <v>70000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1">
+        <v>85000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1">
+        <v>70000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>55000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>90000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>65000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>75000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>70000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1">
+        <v>80000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>41</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1">
+        <v>70000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>38</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1">
+        <v>65000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>35</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <color rgb="FF713C7C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E21">
+    <cfRule type="top10" dxfId="1" priority="1" rank="5"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>